--- a/Lectures and Assignment 3/problem4.xlsx
+++ b/Lectures and Assignment 3/problem4.xlsx
@@ -1,51 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098774E-7CB8-4BAA-91CF-7FC675409F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5A80E6-905A-4F3C-AE21-A23D02EBD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 4" sheetId="14" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 4'!$O$47:$R$47</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 4'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 4'!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 4'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 4'!$N$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 4'!$O$47</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 4'!$S$47</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 4'!#REF!</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 4'!$S$49</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 4'!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 4'!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 4'!$P$52</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 4'!$M$47</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 4'!$U$47</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -54,7 +53,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Social media</t>
   </si>
@@ -143,12 +142,72 @@
       <t>i</t>
     </r>
   </si>
+  <si>
+    <t>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</t>
+  </si>
+  <si>
+    <t>Part (a) Visualization</t>
+  </si>
+  <si>
+    <t>Decision variables</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Constraint # Budget</t>
+  </si>
+  <si>
+    <t>C(xi)</t>
+  </si>
+  <si>
+    <t>exp(cixi)</t>
+  </si>
+  <si>
+    <t>Objective: maximize number of customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraint # </t>
+  </si>
+  <si>
+    <t>Contract on TV</t>
+  </si>
+  <si>
+    <t>x2 + x4</t>
+  </si>
+  <si>
+    <t>x1 + x3</t>
+  </si>
+  <si>
+    <t>Constraint # Policy</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Initial solution for solver</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +240,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +262,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -284,11 +375,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,15 +416,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,11 +477,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:rowOff>39685</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5613400" cy="5761902"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="5613400" cy="16924841"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -361,8 +495,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="361373" y="567893"/>
-              <a:ext cx="5613400" cy="5761902"/>
+              <a:off x="365292" y="553032"/>
+              <a:ext cx="5613400" cy="16924841"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1357,19 +1491,19 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Develop</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (a): Develop</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1391,6 +1525,31 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The visualization has been implemented on the right of this answer sheet</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
@@ -1411,19 +1570,43 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b)</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b):</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1435,7 +1618,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1447,7 +1630,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1463,10 +1646,763 @@
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑎</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>,</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑏</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> to make the formulation more compact. WARNING: </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐶</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>/1000</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐶</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="FF0000"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>/1000</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  ]  </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>We aim to maximize the total number of new customers acquired through various marketing channels, given a fixed budget and specific constraints. We use the non-linear regression model provided for each type of media to calculate the increase in customers based on the marketing expenditure for that channel.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Decision variables:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Marketing expenditure in euros for media i, where i = 1 is for TV, 2 for Podcasts, 3 for Radio, and 4 for Social Media.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Parameters:</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1493,7 +2429,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1501,27 +2437,36 @@
                       </m:r>
                     </m:sub>
                   </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>,</m:t>
-                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1548,7 +2493,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1556,27 +2501,36 @@
                       </m:r>
                     </m:sub>
                   </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​,</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1589,11 +2543,2998 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​: Coefficients for the non-linear regression model for each media type.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐶</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Increase in new customers due to marketing expenditure xi​ in media i, defined as</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>exp</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑐</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1+ </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>exp</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑐</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Total marketing budget: 150,000 euros.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objective Function:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Maximize the total number of new customers across all media channels:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>m</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>ax</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>z</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑐</m:t>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>4</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:e>
+                      </m:d>
+                    </m:e>
+                  </m:nary>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=4</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>4</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑎</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑏</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <m:rPr>
+                              <m:sty m:val="p"/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>exp</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑐</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>1+ </m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:sty m:val="p"/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>exp</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑐</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:nary>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraints:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Budget constraint</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The total expenditure on marketing should not exceed the annual budget of 150,000 euros.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>4</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>≤</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:nary>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>150,000</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Policy constraint: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>More should be spent on internet marketing (Podcasts and Social Media) than on traditional media (TV and Radio). Since strict inequality is not supported, we should add a tiny amount of money (1 euro) to convert it into a </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> sign.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>4</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>+1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Contractual constraint: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>At least 30,000 euros must be spent on TV.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥30000</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Non-Negativity constraint</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Marketing expenditure for each media type should be non-negative.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
                       </m:r>
                     </m:e>
                     <m:sub>
@@ -1617,264 +5558,47 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> to make the formulation more compact. WARNING: </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐶</m:t>
-                  </m:r>
-                  <m:d>
-                    <m:dPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:dPr>
-                    <m:e>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑥</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑖</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>/1000</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:d>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≠</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐶</m:t>
-                  </m:r>
-                  <m:d>
-                    <m:dPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:dPr>
-                    <m:e>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑥</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑖</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:e>
-                  </m:d>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>/1000</m:t>
+                    <m:t>≥0</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  ]  </a:t>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for all </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -1895,6 +5619,58 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>This formulation is a nonlinear problem due to the exponential terms in the objective function. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -1906,6 +5682,29 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c): Implement the NLP model using spreadsheets, solve it, and report the optimal allocation.  (2p) [HINT: Give a feasible starting solution for the solver]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
@@ -1924,12 +5723,51 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
+                <a:rPr lang="en-US" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -1938,80 +5776,15 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:func>
-                    <m:funcPr>
-                      <m:ctrlPr>
-                        <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                          <a:ln>
-                            <a:noFill/>
-                          </a:ln>
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:uLnTx/>
-                          <a:uFillTx/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:funcPr>
-                    <m:fName>
-                      <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                          <a:ln>
-                            <a:noFill/>
-                          </a:ln>
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:uLnTx/>
-                          <a:uFillTx/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>max</m:t>
-                      </m:r>
-                    </m:fName>
-                    <m:e>
-                      <m:r>
-                        <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                          <a:ln>
-                            <a:noFill/>
-                          </a:ln>
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:uLnTx/>
-                          <a:uFillTx/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>…</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:func>
-                </m:oMath>
-              </a14:m>
-              <a:r>
+                <a:t>The feasible starting solution for the solver I used is </a:t>
+              </a:r>
+              <a:br>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -2020,11 +5793,369 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:br>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>TV: 30000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Podcasts:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>50000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, Radio: 10000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, Social Media: 50000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The NLP model has been implemented on the right, and it is solved with GRG nonlinear solver</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal allocation found is:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2035,29 +6166,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Implement the NLP model using spreadsheets, solve it, and report the optimal allocation.  (2p) [HINT: Give a feasible starting solution for the solver]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
@@ -2076,20 +6184,52 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>TV: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>45790.4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2111,12 +6251,216 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Podcasts:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>37314.7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Radio: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>20691.5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Social Media: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>46203.3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI" b="1">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -2125,7 +6469,41 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here  </a:t>
+                <a:t>Number of expected increased customers: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6338</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> customers</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2145,7 +6523,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2159,8 +6537,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="361373" y="567893"/>
-              <a:ext cx="5613400" cy="5761902"/>
+              <a:off x="365292" y="553032"/>
+              <a:ext cx="5613400" cy="16924841"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2484,19 +6862,19 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Develop</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (a): Develop</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2518,6 +6896,31 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The visualization has been implemented on the right of this answer sheet</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
@@ -2538,19 +6941,43 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b)</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b):</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2562,7 +6989,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2574,7 +7001,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2586,7 +7013,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2598,7 +7025,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2610,7 +7037,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2622,7 +7049,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2650,6 +7077,2225 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>We aim to maximize the total number of new customers acquired through various marketing channels, given a fixed budget and specific constraints. We use the non-linear regression model provided for each type of media to calculate the increase in customers based on the marketing expenditure for that channel.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Decision variables:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Marketing expenditure in euros for media i, where i = 1 is for TV, 2 for Podcasts, 3 for Radio, and 4 for Social Media.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Parameters:</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​: Coefficients for the non-linear regression model for each media type.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶(𝑥_𝑖 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Increase in new customers due to marketing expenditure xi​ in media i, defined as</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶(𝑥_𝑖 )=𝑎_𝑖+𝑏_𝑖  (exp(𝑐_𝑖 𝑥_𝑖))/(1+ exp(𝑐_𝑖 𝑥_𝑖))  </a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Total marketing budget: 150,000 euros.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objective Function:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Maximize the total number of new customers across all media channels:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>m</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ax</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> z=∑_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)^4▒𝐶(𝑥_𝑖 ) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ∑_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=4)^4▒〖𝑎_𝑖+𝑏_𝑖  (exp(𝑐_𝑖 𝑥_𝑖))/(1+ exp(𝑐_𝑖 𝑥_𝑖))〗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraints:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Budget constraint</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The total expenditure on marketing should not exceed the annual budget of 150,000 euros.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑_(𝑖=1)^4▒〖𝑥_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"150,000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Policy constraint: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>More should be spent on internet marketing (Podcasts and Social Media) than on traditional media (TV and Radio). Since strict inequality is not supported, we should add a tiny amount of money (1 euro) to convert it into a </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> sign.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≥𝑥_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3+1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Contractual constraint: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>At least 30,000 euros must be spent on TV.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≥30000</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Non-Negativity constraint</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Marketing expenditure for each media type should be non-negative.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≥0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for all </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>This formulation is a nonlinear problem due to the exponential terms in the objective function. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2661,6 +9307,29 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c): Implement the NLP model using spreadsheets, solve it, and report the optimal allocation.  (2p) [HINT: Give a feasible starting solution for the solver]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
@@ -2679,12 +9348,51 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
+                <a:rPr lang="en-US" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -2693,32 +9401,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here </a:t>
-              </a:r>
-              <a:r>
+                <a:t>The feasible starting solution for the solver I used is </a:t>
+              </a:r>
+              <a:br>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
                   <a:uFillTx/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>max⁡…</a:t>
-              </a:r>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
               <a:r>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -2729,9 +9436,351 @@
                 </a:rPr>
                 <a:t> </a:t>
               </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:br>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>TV: 30000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Podcasts:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>50000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, Radio: 10000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, Social Media: 50000</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The NLP model has been implemented on the right, and it is solved with GRG nonlinear solver</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal allocation found is:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2742,29 +9791,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Implement the NLP model using spreadsheets, solve it, and report the optimal allocation.  (2p) [HINT: Give a feasible starting solution for the solver]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
                 <a:lnSpc>
                   <a:spcPct val="100000"/>
@@ -2783,20 +9809,52 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" b="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>TV: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>45790.4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2818,12 +9876,216 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Podcasts:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>37314.7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Radio: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>20691.5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Social Media: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>46203.3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>€</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI" b="1">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -2832,7 +10094,41 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here  </a:t>
+                <a:t>Number of expected increased customers: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6338</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> customers</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -4348,37 +11644,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>616528</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5655</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14298B22-D48E-CB56-EF30-86913D6C4F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6961910" y="4441922"/>
+          <a:ext cx="5070219" cy="3261205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Problem 1"/>
-      <sheetName val="Problem 2"/>
-      <sheetName val="Problem 3"/>
-      <sheetName val="Problem 4"/>
-      <sheetName val="Problem 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4644,10 +11960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4656,104 +11972,277 @@
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="5.44140625" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="15" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="A1" s="2" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="2" t="str">
-        <f>'[1]Problem 2'!$A$1</f>
-        <v>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="5:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="E30" s="5"/>
-      <c r="F30" s="6" t="s">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="39" spans="12:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="M39" s="5"/>
+      <c r="N39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="O39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="8" t="s">
+    <row r="40" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M40" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="N40" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="3">
+      <c r="O40" s="18">
         <v>-3000</v>
       </c>
-      <c r="H31" s="3">
+      <c r="P40" s="18">
         <v>6000</v>
       </c>
-      <c r="I31" s="9">
+      <c r="Q40" s="19">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="8" t="s">
+    <row r="41" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M41" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="N41" s="3">
         <v>2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="O41" s="18">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="P41" s="18">
         <v>5000</v>
       </c>
-      <c r="I32" s="9">
+      <c r="Q41" s="19">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E33" s="8" t="s">
+    <row r="42" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="3">
+      <c r="N42" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="3">
+      <c r="O42" s="18">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="P42" s="18">
         <v>3000</v>
       </c>
-      <c r="I33" s="9">
+      <c r="Q42" s="19">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E34" s="10" t="s">
+    <row r="43" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M43" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="4">
+      <c r="N43" s="4">
         <v>4</v>
       </c>
-      <c r="G34" s="4">
+      <c r="O43" s="20">
         <v>-3000</v>
       </c>
-      <c r="H34" s="4">
+      <c r="P43" s="20">
         <v>6000</v>
       </c>
-      <c r="I34" s="11">
+      <c r="Q43" s="21">
         <v>3.4999999999999997E-5</v>
       </c>
     </row>
+    <row r="46" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="12"/>
+      <c r="O46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="13">
+        <v>30000</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="14">
+        <v>45790.399139902125</v>
+      </c>
+      <c r="P47" s="14">
+        <v>37314.744032043774</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>20691.547850900195</v>
+      </c>
+      <c r="R47" s="14">
+        <v>46203.309196991897</v>
+      </c>
+      <c r="S47" s="15">
+        <f>SUM(O47:R47)</f>
+        <v>150000.000219838</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U47" s="13">
+        <v>150000</v>
+      </c>
+      <c r="V47" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="17"/>
+    </row>
+    <row r="48" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L48" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48" s="15">
+        <f>EXP(Q40*O47)</f>
+        <v>3.9499857613975946</v>
+      </c>
+      <c r="P48" s="15">
+        <f>EXP(Q41*P47)</f>
+        <v>6.4606969669926535</v>
+      </c>
+      <c r="Q48" s="15">
+        <f>EXP(Q42*Q47)</f>
+        <v>2.8139168020917413</v>
+      </c>
+      <c r="R48" s="15">
+        <f>EXP(Q43*R47)</f>
+        <v>5.0385373009415737</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="N49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="15">
+        <f>$O40+$P40*(O48/(1+O48))</f>
+        <v>1787.8753012198686</v>
+      </c>
+      <c r="P49" s="15">
+        <f>O41+P41*(P48/(1+P48))</f>
+        <v>1829.8213260609809</v>
+      </c>
+      <c r="Q49" s="15">
+        <f>O42+P42*(Q48/(1+Q48))</f>
+        <v>713.4070679374413</v>
+      </c>
+      <c r="R49" s="15">
+        <f>O43+P43*(R48/(1+R48))</f>
+        <v>2006.3818933329376</v>
+      </c>
+      <c r="S49" s="16">
+        <f>SUM(O49:R49)</f>
+        <v>6337.4855885512288</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+    </row>
+    <row r="51" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="17"/>
+      <c r="N51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="15">
+        <f>SUM(P47,R47)</f>
+        <v>83518.053229035664</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" s="15">
+        <f>SUM(O47,Q47) + 1</f>
+        <v>66482.946990802317</v>
+      </c>
+    </row>
+    <row r="53" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+    </row>
+    <row r="54" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M54" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" s="14">
+        <v>30000</v>
+      </c>
+      <c r="P54" s="14">
+        <v>50000</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>20000</v>
+      </c>
+      <c r="R54" s="14">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="L51:M51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
